--- a/medicine/Sexualité et sexologie/Histoire_du_mot_pédérastie/Histoire_du_mot_pédérastie.xlsx
+++ b/medicine/Sexualité et sexologie/Histoire_du_mot_pédérastie/Histoire_du_mot_pédérastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pédérastie (du grec ancien παιδ- paid- « enfant mâle, garçon » et ἐραστής erastès « amant ») désigne à l'origine une institution morale et éducative de l'Antiquité bâtie autour de la relation particulière entre un homme mûr et un jeune garçon. Le mot pédérastie n'est attesté en langue française qu'à partir de la fin du XVIe siècle. Il a très vite connu une série d'évolutions sémantiques qui l'ont considérablement éloigné de son sens d'amour des garçons. Quasiment abandonné au début du XXIe siècle, il est peu à peu réintroduit avec le sens de préférence sexuelle d'un homme adulte pour les garçons adolescents".
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>XVIe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D'origine païenne, le mot pédérastie fit son apparition dans le dernier quart du siècle sous la plume de Jean Bodin. La redécouverte de la culture antique, et notamment de Platon, fut  l'occasion d'un renouveau artistique et philosophique de première importance dans l'histoire des sociétés européennes. Selon Jean-Claude Féray, « la Renaissance (…) souffla une brise fraîche, empreinte de paganisme, une brise qui embaumait l'Éros garçonnier, sur les miasmes scolastiques du péché contre nature ou du vice sodomique ». Il est clair à la lecture de ses œuvres que Rabelais, par exemple, s'amusait de l'homosexualité et ne s'en choquait jamais (voir notamment le passage sur la "duplicité braguettine", Le cinquième livre, XXVII).
 Pédérastie resta malgré tout d'un emploi rare et savant, largement devancé par ses prédécesseurs médiévaux sodomie et bougrerie, tous deux d'origine religieuse. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>XVIIe et XVIIIe siècles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIIe siècle, un seul dictionnaire de langue française comprend l'entrée pédéraste, défini par le recours au pseudo-synonyme sodomite (Pierre Richelet, Dictionnaire françois contenant les mots et les choses, Genève, 1680).
 Au XVIIIe siècle, c'est seulement dans sa quatrième édition, en 1762, que le dictionnaire de l'Académie française accepte pédérastie dans ses entrées : « Passion, amour honteux entre des hommes ».
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En même temps que le XIXe siècle voyait se répandre le mot pédérastie, le mot continua à perdre au fil du siècle sa signification première.
 En 1835, la sixième édition du dictionnaire de l'Académie française marquait une spectaculaire régression dans la définition donnée à pédérastie : « Vice contre nature ».
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le discours scientifique ne recourra presque jamais plus à pédérastie ou à pédéraste. Même lorsque se voyait abordé le sujet de l'amour des garçons chez les Grecs anciens, on recourait dans la première moitié du XXe siècle plus volontiers à l'expression d'« homosexualité grecque ».
 Parallèlement, le substantif pédéraste survivait dans la littérature comme synonyme erroné d'homosexuel, auquel il finirait d'ailleurs peu à peu par laisser la place. Dans le langage courant, pédé, qui en découle par apocope, achève de laisser la place à homo et gay/gai, et ne survit plus guère aujourd'hui que comme injure, d'ailleurs souvent sans référence à la sexualité de la personne visée.
@@ -653,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Histoire_du_mot_p%C3%A9d%C3%A9rastie</t>
+          <t>Histoire_du_mot_pédérastie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -671,7 +691,9 @@
           <t>XXIe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On voit que le mot pédérastie a connu une histoire passablement mouvementée et chaotique de sorte qu'aujourd'hui encore son emploi peut entraîner des quiproquos ou donner naissance à un sentiment d'incertitude : est-on sûr d'être compris ou de parler de la même chose que ses interlocuteurs ?
 Pour différentes raisons, certains préfèrent donc éviter d'employer ce terme. Les uns pensent qu'il conviendrait de réserver l'emploi du mot pédérastie à l'institution de la Grèce ancienne, et préfèrent parler d'homosexualité pédérastique ou d'homosexualité de type pédérastique pour désigner l'attirance amoureuse et/ou sexuelle que certains hommes éprouvent pour les adolescents. Jean-Claude Féray opte pour une autre solution. Il est l'auteur d'un travail de recherche approfondi sur l'histoire du mot pédérastie dans la langue française, sur lequel s'appuie l'essentiel de cette rubrique ; pour désigner l'amour des garçons (au sens platonicien, « pas nécessairement platonique »), il propose astucieusement la graphie suivante, paidérastie, dans l'intention de lever les ambiguïtés du mot dans sa graphie originale.
